--- a/Data/Processing/2024-02-02/SHAREINDIA.xlsx
+++ b/Data/Processing/2024-02-02/SHAREINDIA.xlsx
@@ -1513,10 +1513,10 @@
         <v>44986</v>
       </c>
       <c r="B20">
-        <v>1067.42</v>
+        <v>1067.41</v>
       </c>
       <c r="C20">
-        <v>1067.42</v>
+        <v>1067.41</v>
       </c>
       <c r="D20">
         <v>1032.88</v>
@@ -1534,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="I20">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>-3.34</v>
       </c>
       <c r="L20">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="M20">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>1185.41</v>
       </c>
       <c r="D55">
-        <v>1111.96</v>
+        <v>1111.97</v>
       </c>
       <c r="E55">
         <v>1182.43</v>
@@ -5213,13 +5213,13 @@
         <v>45098</v>
       </c>
       <c r="B94">
-        <v>1274.55</v>
+        <v>1274.56</v>
       </c>
       <c r="C94">
         <v>1286.94</v>
       </c>
       <c r="D94">
-        <v>1274.55</v>
+        <v>1274.56</v>
       </c>
       <c r="E94">
         <v>1278.72</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>-2.28</v>
+        <v>-2.27</v>
       </c>
       <c r="M94">
         <v>-0.6299999999999999</v>
@@ -6619,7 +6619,7 @@
         <v>1199.03</v>
       </c>
       <c r="D122">
-        <v>1175.45</v>
+        <v>1175.44</v>
       </c>
       <c r="E122">
         <v>1186.79</v>
